--- a/Test Data/RegisterDetails.xlsx
+++ b/Test Data/RegisterDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurh\eclipse-workspace\AssignmentWeek19\Test Register Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurh\eclipse-workspace\AssignmentWeek19\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB87A3-2738-430D-8EFC-09905AB9D1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A61D90-AF04-4DC1-B7A4-7E12E286ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="2796" windowWidth="17280" windowHeight="7968" xr2:uid="{2093D219-1112-4151-88D1-2BD160CE2148}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2093D219-1112-4151-88D1-2BD160CE2148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>firstname</t>
   </si>
@@ -56,65 +55,23 @@
     <t>Kaur</t>
   </si>
   <si>
-    <t>Navjot</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Sahib</t>
-  </si>
-  <si>
-    <t>Neethu</t>
-  </si>
-  <si>
-    <t>Unnikrishnan</t>
-  </si>
-  <si>
-    <t>Swaroop</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>confirm password</t>
   </si>
   <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>Navjot13</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
-    <t>password@01</t>
-  </si>
-  <si>
-    <t>harinder15@gmail.com</t>
-  </si>
-  <si>
-    <t>Navjot.rehal15@gmail.com</t>
-  </si>
-  <si>
-    <t>sg15@gmail.com</t>
-  </si>
-  <si>
-    <t>neethu15@gmail.com</t>
-  </si>
-  <si>
-    <t>iron.man15@gmail.com</t>
+    <t>harinder@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +100,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,11 +149,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -492,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D82A836-31DA-4B94-8A0D-C48F734B8F87}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +487,7 @@
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,124 +501,74 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>7802980981</v>
+        <v>7802980988</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7802561458</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5041526585</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4520146523</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5410235986</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E5AA6576-A9CC-4758-8DF4-E0892D5C05F2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{15CC920C-476E-4868-999D-A313C34929B1}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{02DDB04D-BF4B-43BD-9709-3BFCB7CCBA0C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{B75E7D45-3918-4C93-8697-0B0691843668}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{ABDC17A0-F157-4B2A-A34F-16888C3DE2BE}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{6DB2E129-3F1E-490D-94DF-0C0B3E2B1CEB}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{71A0A2B5-D106-4D3D-A8D3-C16D353473C5}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{242E8EC4-B318-4D1B-B6F5-12E5CE729E61}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{7FA36379-BC9B-4AF2-A462-720DF0491EBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
